--- a/biology/Médecine/Frank_Ryan_(biologiste)/Frank_Ryan_(biologiste).xlsx
+++ b/biology/Médecine/Frank_Ryan_(biologiste)/Frank_Ryan_(biologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frank P. Ryan, né le 23 juillet 1944, à Limerick (Irlande)[1], est un médecin et biologiste de l'évolution britannique[2].
-Il est membre honoraire du Department of Animal and Plant Sciences à l’Université de Sheffield (à Sheffield, au Royaume-Uni)[3].
-Écrivain scientifique, Frank Ryan est également auteur de livres de fiction[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frank P. Ryan, né le 23 juillet 1944, à Limerick (Irlande), est un médecin et biologiste de l'évolution britannique.
+Il est membre honoraire du Department of Animal and Plant Sciences à l’Université de Sheffield (à Sheffield, au Royaume-Uni).
+Écrivain scientifique, Frank Ryan est également auteur de livres de fiction.
 </t>
         </is>
       </c>
@@ -513,14 +525,16 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Tuberculosis : The Greatest Story Never Told, Swift Publishers, Bromsgrove, 1992, xxiii + 446 p.  (ISBN 1-8740-8200-6)
-(en) The Forgotten Plague : How the Battle Against Tuberculosis Was Won And Lost, Little, Brown &amp; Company, Boston, 1993, xix + 460 p.  (ISBN 0-316-76380-2)[5]
-(en) Virus X : Tracking the New Killer Plagues — Out of the Present and Into the Future, Little, Brown &amp; Company, Boston, 1997, 430 p.  (ISBN 0-316-76383-7)[6],[7]
-(en) Darwin’s Blind Spot : Evolution Beyond Natural Selection, Houghton Mifflin, Boston, 2002, ix + 310 p.  (ISBN 0-618-11812-8)[8]
-(en) Virolution, Collins, London, 2009, 390 p.  (ISBN 978-0-00-731512-3)[9],[10]
-(fr) Virus et hommes, un destin commun ?, traduction d’Astrid Vabret et Catharine Mason, coll. « Essais », Éditions Le Pommier, Paris, 2011, 407 p.  (ISBN 978-2-7465-0512-4)[3]
+(en) The Forgotten Plague : How the Battle Against Tuberculosis Was Won And Lost, Little, Brown &amp; Company, Boston, 1993, xix + 460 p.  (ISBN 0-316-76380-2)
+(en) Virus X : Tracking the New Killer Plagues — Out of the Present and Into the Future, Little, Brown &amp; Company, Boston, 1997, 430 p.  (ISBN 0-316-76383-7),
+(en) Darwin’s Blind Spot : Evolution Beyond Natural Selection, Houghton Mifflin, Boston, 2002, ix + 310 p.  (ISBN 0-618-11812-8)
+(en) Virolution, Collins, London, 2009, 390 p.  (ISBN 978-0-00-731512-3),
+(fr) Virus et hommes, un destin commun ?, traduction d’Astrid Vabret et Catharine Mason, coll. « Essais », Éditions Le Pommier, Paris, 2011, 407 p.  (ISBN 978-2-7465-0512-4)
 (en) The Mystery of Metamorphosis : A Scientific Detective Story, Chelsea Green Publishing, White River Junction (Vermont), 2011, xxiii + 294 p.  (ISBN 978-1603583411)</t>
         </is>
       </c>
